--- a/results/mp/deberta/corona/confidence/126/stop-words-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-0.1/avg_0.003_scores.xlsx
@@ -115,10 +115,10 @@
     <t>heroes</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
   </si>
   <si>
     <t>hope</t>
@@ -1159,25 +1159,25 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6753246753246753</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L19">
         <v>156</v>
       </c>
       <c r="M19">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="N19">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1289,25 +1289,25 @@
         <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5548780487804879</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L24">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="N24">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1315,13 +1315,13 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5428571428571428</v>
+        <v>0.5352941176470588</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="10:17">
